--- a/step4-Output.xlsx
+++ b/step4-Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1456513A-D5FE-475B-AB3E-0D9053DD64DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB69F13C-FC2E-46C0-AB32-B77B73B840B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,12 +93,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,10 +186,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +534,7 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,16 +620,16 @@
         <f>AVERAGE(D2:D31)</f>
         <v>191.36666666666667</v>
       </c>
-      <c r="K3" s="4">
-        <f>J3-1.96*I3/SQRT(30)</f>
-        <v>185.87779508836707</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
-        <f>J3+1.96*I3/SQRT(30)</f>
-        <v>196.85553824496628</v>
-      </c>
-      <c r="N3" s="4"/>
+      <c r="K3" s="5">
+        <f>J3-2.045*I3/SQRT(30)</f>
+        <v>185.63975729032856</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <f>J3+2.045*I3/SQRT(30)</f>
+        <v>197.09357604300479</v>
+      </c>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -665,16 +659,16 @@
         <f>AVERAGE(D32:D61)</f>
         <v>189.13333333333333</v>
       </c>
-      <c r="K4" s="4">
-        <f>J4-1.96*I4/SQRT(30)</f>
-        <v>183.52567986597626</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
-        <f>J4+1.96*I4/SQRT(30)</f>
-        <v>194.74098680069039</v>
-      </c>
-      <c r="N4" s="4"/>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K11" si="0">J4-2.045*I4/SQRT(30)</f>
+        <v>183.28249081254495</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M11" si="1">J4+2.045*I4/SQRT(30)</f>
+        <v>194.9841758541217</v>
+      </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -704,16 +698,16 @@
         <f>AVERAGE(D62:D91)</f>
         <v>66.266666666666666</v>
       </c>
-      <c r="K5" s="4">
-        <f>J5-1.96*I5/SQRT(30)</f>
-        <v>62.596913349349315</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <f>J5+1.96*I5/SQRT(30)</f>
-        <v>69.93641998398401</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>62.437765884057491</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>70.095567449275833</v>
+      </c>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -743,16 +737,16 @@
         <f>AVERAGE(D92:D121)</f>
         <v>0.54993558326029435</v>
       </c>
-      <c r="K6" s="4">
-        <f>J6-1.96*I6/SQRT(30)</f>
-        <v>0.51945033557689446</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <f>J6+1.96*I6/SQRT(30)</f>
-        <v>0.58042083094369423</v>
-      </c>
-      <c r="N6" s="4"/>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.51812827126409389</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58174289525649481</v>
+      </c>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -782,16 +776,16 @@
         <f>AVERAGE(D122:D151)</f>
         <v>61.333333333333336</v>
       </c>
-      <c r="K7" s="4">
-        <f>J7-1.96*I7/SQRT(30)</f>
-        <v>58.251685567901404</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <f>J7+1.96*I7/SQRT(30)</f>
-        <v>64.414981098765267</v>
-      </c>
-      <c r="N7" s="4"/>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>58.118042680114819</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>64.548623986551846</v>
+      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -820,16 +814,16 @@
         <f>AVERAGE(D152:D181)</f>
         <v>0.50929478836493425</v>
       </c>
-      <c r="K8" s="4">
-        <f>J8-1.96*I8/SQRT(30)</f>
-        <v>0.48359484607569281</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <f>J8+1.96*I8/SQRT(30)</f>
-        <v>0.53499473065417569</v>
-      </c>
-      <c r="N8" s="4"/>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.48248030776212875</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53610926896773969</v>
+      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -858,16 +852,16 @@
         <f>AVERAGE(D182:D211)</f>
         <v>63.1</v>
       </c>
-      <c r="K9" s="4">
-        <f>J9-1.96*I9/SQRT(30)</f>
-        <v>60.322809920867471</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <f>J9+1.96*I9/SQRT(30)</f>
-        <v>65.877190079132532</v>
-      </c>
-      <c r="N9" s="4"/>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>60.202370555190804</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>65.997629444809206</v>
+      </c>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -896,16 +890,16 @@
         <f>AVERAGE(D212:D241)</f>
         <v>0.52399687942999262</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" ref="K8:K11" si="0">J10-1.96*I10/SQRT(30)</f>
-        <v>0.50081564578811177</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <f t="shared" ref="M8:M11" si="1">J10+1.96*I10/SQRT(30)</f>
-        <v>0.54717811307187347</v>
-      </c>
-      <c r="N10" s="4"/>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49981033718629553</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.54818342167368972</v>
+      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -934,16 +928,16 @@
         <f>AVERAGE(D242:D271)</f>
         <v>189.13333333333333</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
-        <v>183.52567986597626</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+        <v>183.28249081254495</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
         <f t="shared" si="1"/>
-        <v>194.74098680069039</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>194.9841758541217</v>
+      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -981,7 +975,7 @@
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
